--- a/Phd/Explore/Phd Links.xlsx
+++ b/Phd/Explore/Phd Links.xlsx
@@ -4,13 +4,13 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Ratings" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Sheet2" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Sheet3" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Sheet4" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Sheet5" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Sheet6" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Sheet7" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Sheet4" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Sheet5" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Sheet6" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Sheet7" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Sheet9" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="Copy of Sheet2" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="149">
   <si>
     <t>A note goes here</t>
   </si>
@@ -444,57 +444,16 @@
     <t>https://guide.wisc.edu/graduate/forest-wildlife-ecology/wildlife-ecology-phd/</t>
   </si>
   <si>
-    <t>Raw Rating</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>After reading the description of the program from the "</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>Our Academic Programs</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>" link, give a rating according to the scale</t>
-    </r>
-  </si>
-  <si>
-    <t>Scale</t>
+    <t>Would you want to pursue a Ph.D. in this?</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Date (10:45 AM)</t>
-  </si>
-  <si>
-    <t>Question/Prompt for Rating</t>
-  </si>
-  <si>
-    <t>Would you want to pursue a Ph.D. in this?</t>
-  </si>
-  <si>
-    <t>Date (PM)</t>
+    <t>Time</t>
   </si>
   <si>
     <t xml:space="preserve">*These were self rated* </t>
-  </si>
-  <si>
-    <t>Date 10:40 AM</t>
-  </si>
-  <si>
-    <t>Date 9:27 PM</t>
-  </si>
-  <si>
-    <t>Date 10:32 AM</t>
   </si>
   <si>
     <t>num students</t>
@@ -513,9 +472,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m-d"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="h:mm am/pm"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -552,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -572,6 +532,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1769,7 +1732,905 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="59.63"/>
+    <col customWidth="1" min="2" max="2" width="8.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D45" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D47" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D50" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D52" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D56" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D59" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D60" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D61" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C62" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D62" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C63" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="6">
+        <v>45117.0</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0.7673611111111112</v>
+      </c>
+      <c r="D65" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1784,753 +2645,907 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="59.63"/>
+    <col customWidth="1" min="1" max="1" width="59.63"/>
+    <col customWidth="1" min="2" max="2" width="13.25"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
     <row r="2">
-      <c r="B2" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
-      <c r="B4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.0</v>
+      <c r="A4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="1">
-        <v>2.0</v>
+      <c r="A5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="1">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D6" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="1">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D7" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="1">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D9" s="1">
         <v>5.0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="D9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="10">
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
+      <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="6">
-        <v>45117.0</v>
+      <c r="A11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.4479166666666667</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="6">
-        <v>45117.0</v>
+      <c r="B12" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.4479166666666667</v>
       </c>
       <c r="D12" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="6">
-        <v>45117.0</v>
+      <c r="B15" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.4479166666666667</v>
       </c>
       <c r="D15" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="6">
-        <v>45117.0</v>
+      <c r="A16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.4479166666666667</v>
       </c>
       <c r="D16" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="6">
-        <v>45117.0</v>
+      <c r="B19" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.4479166666666667</v>
       </c>
       <c r="D19" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="6">
-        <v>45117.0</v>
+      <c r="A20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.4479166666666667</v>
       </c>
       <c r="D20" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="B25" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D25" s="1">
         <v>5.0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D22" s="1">
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D30" s="1">
         <v>2.0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="1" t="s">
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="B34" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D35" s="1">
         <v>5.0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="B31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
     <row r="36">
-      <c r="B36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="6">
-        <v>45117.0</v>
+      <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.4479166666666667</v>
       </c>
       <c r="D36" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="1" t="s">
+      <c r="A37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D39" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D40" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="6">
-        <v>45117.0</v>
+      <c r="B41" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.4479166666666667</v>
       </c>
       <c r="D41" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="B42" s="1" t="s">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D45" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D50" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D51" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D55" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D56" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D57" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D61" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C62" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D62" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C63" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D42" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D43" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D44" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D45" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="B64" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D64" s="1">
         <v>2.0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="B47" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D47" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D48" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D49" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D50" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D51" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D52" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D53" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D54" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D55" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D56" s="1">
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="6">
+        <v>45118.0</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="D65" s="1">
         <v>2.0</v>
       </c>
     </row>
-    <row r="57">
-      <c r="B57" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D57" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D58" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C59" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D59" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C60" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D60" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C61" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D61" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D62" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D63" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D64" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D65" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D66" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D67" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C68" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D68" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C69" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D69" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C70" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D70" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C71" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D71" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C72" s="6">
-        <v>45117.0</v>
-      </c>
-      <c r="D72" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="C3"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2544,705 +3559,901 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="59.63"/>
+    <col customWidth="1" min="1" max="1" width="56.0"/>
+    <col customWidth="1" min="2" max="2" width="12.25"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="B2" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
     <row r="4">
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="6">
-        <v>45118.0</v>
+      <c r="B4" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.90625</v>
       </c>
       <c r="D4" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="6">
-        <v>45118.0</v>
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.90625</v>
       </c>
       <c r="D5" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="6">
-        <v>45118.0</v>
+      <c r="A6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.90625</v>
       </c>
       <c r="D6" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="6">
-        <v>45118.0</v>
+      <c r="A7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.90625</v>
       </c>
       <c r="D7" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="6">
-        <v>45118.0</v>
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.90625</v>
       </c>
       <c r="D8" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="6">
-        <v>45118.0</v>
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.90625</v>
       </c>
       <c r="D9" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="6">
-        <v>45118.0</v>
+      <c r="A10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.90625</v>
       </c>
       <c r="D10" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="6">
-        <v>45118.0</v>
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.90625</v>
       </c>
       <c r="D11" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="6">
-        <v>45118.0</v>
+      <c r="A12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.90625</v>
       </c>
       <c r="D12" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="6">
-        <v>45118.0</v>
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.90625</v>
       </c>
       <c r="D13" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="B23" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D23" s="1">
         <v>2.0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
     <row r="24">
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="6">
-        <v>45118.0</v>
+      <c r="A24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.90625</v>
       </c>
       <c r="D24" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="6">
-        <v>45118.0</v>
+      <c r="A25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.90625</v>
       </c>
       <c r="D25" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="B39" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D47" s="1">
         <v>5.0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D27" s="1">
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D52" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D53" s="1">
         <v>5.0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="B28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D34" s="1">
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D55" s="1">
         <v>5.0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="B35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D36" s="1">
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D57" s="1">
         <v>5.0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="B37" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C39" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D39" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D40" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D41" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="1" t="s">
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D58" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D59" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D42" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D43" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D44" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D45" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D46" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D47" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D48" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D49" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D50" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D51" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D52" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D53" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D54" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D55" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D56" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D57" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D58" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D59" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" s="6">
-        <v>45118.0</v>
+      <c r="B60" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0.90625</v>
       </c>
       <c r="D60" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="B61" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" s="6">
-        <v>45118.0</v>
+      <c r="A61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0.90625</v>
       </c>
       <c r="D61" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="B62" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" s="6">
-        <v>45118.0</v>
+      <c r="A62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C62" s="7">
+        <v>0.90625</v>
       </c>
       <c r="D62" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="B63" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C63" s="6">
-        <v>45118.0</v>
+      <c r="A63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C63" s="7">
+        <v>0.90625</v>
       </c>
       <c r="D63" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="B64" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C64" s="6">
-        <v>45118.0</v>
+      <c r="A64" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0.90625</v>
       </c>
       <c r="D64" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="6">
+        <v>45119.0</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="D65" s="1">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -3260,715 +4471,904 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" hidden="1" min="1" max="1" width="21.25"/>
-    <col customWidth="1" min="2" max="2" width="56.0"/>
-    <col customWidth="1" hidden="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="1" max="1" width="59.63"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="2">
+      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="6">
-        <v>45118.0</v>
+      <c r="A4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.4444444444444444</v>
       </c>
       <c r="D4" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="1" t="s">
+      <c r="B12" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B17" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D24" s="1">
         <v>5.0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="1" t="s">
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="1" t="s">
+      <c r="B31" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="1" t="s">
+      <c r="B33" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D36" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="6">
-        <v>45118.0</v>
+      <c r="B37" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.4444444444444444</v>
       </c>
       <c r="D37" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="6">
-        <v>45118.0</v>
+      <c r="A38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.4444444444444444</v>
       </c>
       <c r="D38" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="1" t="s">
+      <c r="A39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D44" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D39" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D40" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D41" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D42" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D43" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="6">
-        <v>45118.0</v>
+      <c r="B45" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.4444444444444444</v>
       </c>
       <c r="D45" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="6">
-        <v>45118.0</v>
+      <c r="A46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.4444444444444444</v>
       </c>
       <c r="D46" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="B47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="6">
-        <v>45118.0</v>
+      <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.4444444444444444</v>
       </c>
       <c r="D47" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D49" s="1">
         <v>5.0</v>
       </c>
     </row>
-    <row r="48">
-      <c r="B48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D48" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="6">
-        <v>45118.0</v>
-      </c>
-      <c r="D49" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
     <row r="50">
-      <c r="B50" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="6">
-        <v>45118.0</v>
+      <c r="A50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0.4444444444444444</v>
       </c>
       <c r="D50" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="B51" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C51" s="6">
-        <v>45118.0</v>
+      <c r="A51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0.4444444444444444</v>
       </c>
       <c r="D51" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="B52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="6">
-        <v>45118.0</v>
+      <c r="A52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.4444444444444444</v>
       </c>
       <c r="D52" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="B53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="6">
-        <v>45118.0</v>
+      <c r="A53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.4444444444444444</v>
       </c>
       <c r="D53" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="B54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="6">
-        <v>45118.0</v>
+      <c r="A54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0.4444444444444444</v>
       </c>
       <c r="D54" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="B55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="6">
-        <v>45118.0</v>
+      <c r="A55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0.4444444444444444</v>
       </c>
       <c r="D55" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="6">
-        <v>45118.0</v>
+      <c r="A56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.4444444444444444</v>
       </c>
       <c r="D56" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="6">
-        <v>45118.0</v>
+      <c r="A57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0.4444444444444444</v>
       </c>
       <c r="D57" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="6">
-        <v>45118.0</v>
+      <c r="A58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0.4444444444444444</v>
       </c>
       <c r="D58" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="B59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="6">
-        <v>45118.0</v>
+      <c r="A59" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0.4444444444444444</v>
       </c>
       <c r="D59" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="B60" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" s="6">
-        <v>45118.0</v>
+      <c r="A60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0.4444444444444444</v>
       </c>
       <c r="D60" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="B61" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" s="6">
-        <v>45118.0</v>
+      <c r="A61" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0.4444444444444444</v>
       </c>
       <c r="D61" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="B62" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="6">
-        <v>45118.0</v>
+      <c r="A62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C62" s="7">
+        <v>0.4444444444444444</v>
       </c>
       <c r="D62" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="B63" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" s="6">
-        <v>45118.0</v>
+      <c r="A63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C63" s="7">
+        <v>0.4444444444444444</v>
       </c>
       <c r="D63" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="B64" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C64" s="6">
-        <v>45118.0</v>
+      <c r="A64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0.4444444444444444</v>
       </c>
       <c r="D64" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65" s="6">
-        <v>45118.0</v>
+      <c r="A65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="6">
+        <v>45125.0</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0.4444444444444444</v>
       </c>
       <c r="D65" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -3987,712 +5387,904 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="59.63"/>
+    <col customWidth="1" min="2" max="2" width="12.13"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>150</v>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>143</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>65</v>
+      </c>
+      <c r="B4" s="6">
+        <v>45127.0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B5" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="B6" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="B7" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="B8" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B9" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C9" s="1">
+        <v>45127.0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D9" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B10" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="B11" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C11" s="1">
+        <v>45127.0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D11" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B12" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B13" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C13" s="1">
+        <v>45127.0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D13" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B14" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B15" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B16" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C16" s="1">
+        <v>45127.0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D16" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="B17" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C17" s="1">
+        <v>45127.0</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D17" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="B18" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C18" s="1">
+        <v>45127.0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D18" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="B19" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="B20" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C20" s="1">
+        <v>45127.0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D20" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B21" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="B22" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B23" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C23" s="1">
+        <v>45127.0</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D23" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B24" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>4.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="B25" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>5.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="B26" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>3.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="B27" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B28" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C28" s="1">
+        <v>45127.0</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D28" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B29" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="B30" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C30" s="1">
-        <v>4.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B31" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="B32" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C32" s="1">
-        <v>3.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="B33" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>3.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="B34" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C34" s="1">
+        <v>45127.0</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D34" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B35" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C35" s="1">
-        <v>3.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B36" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C36" s="1">
-        <v>3.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B37" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C37" s="1">
-        <v>4.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B38" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C38" s="1">
-        <v>3.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B39" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C39" s="1">
-        <v>2.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="B40" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C40" s="1">
-        <v>4.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="B41" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C41" s="1">
+        <v>45127.0</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D41" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B42" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C42" s="1">
-        <v>2.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="B43" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B44" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C44" s="1">
-        <v>5.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B45" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C45" s="1">
-        <v>5.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D45" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="B46" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C46" s="1">
-        <v>5.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B47" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C47" s="1">
+        <v>45127.0</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D47" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="B48" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C48" s="1">
-        <v>3.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="B49" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="B50" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C50" s="1">
-        <v>5.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D50" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="B51" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C51" s="1">
+        <v>45127.0</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D51" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B52" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C52" s="1">
-        <v>4.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D52" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B53" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C53" s="1">
+        <v>45127.0</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D53" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="B54" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C54" s="1">
-        <v>3.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B55" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C55" s="1">
+        <v>45127.0</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D55" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="B56" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C56" s="1">
-        <v>5.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D56" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="B57" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C57" s="1">
+        <v>45127.0</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D57" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="B58" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C58" s="1">
-        <v>3.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D58" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B59" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C59" s="1">
-        <v>3.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="B60" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C60" s="1">
-        <v>4.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B61" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C61" s="1">
-        <v>4.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="B62" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C62" s="1">
-        <v>4.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C62" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B63" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C63" s="1">
+        <v>45127.0</v>
+      </c>
+      <c r="C63" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D63" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="B64" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C64" s="1">
+        <v>45127.0</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D64" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="B65" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C65" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66" s="6">
-        <v>45125.0</v>
-      </c>
-      <c r="C66" s="1">
-        <v>3.0</v>
+        <v>45127.0</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0.89375</v>
+      </c>
+      <c r="D65" s="1">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -4716,14 +6308,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="2">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4732,153 +6326,195 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="B4" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C4" s="1">
+        <v>45128.0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D4" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="B5" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="B6" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B7" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="B8" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="B9" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B10" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C11" s="1">
+        <v>45128.0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D11" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B12" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="B13" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B14" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B15" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C15" s="1">
+        <v>45128.0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D15" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="B16" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="17">
@@ -4886,296 +6522,377 @@
         <v>29</v>
       </c>
       <c r="B17" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C17" s="1">
+        <v>45128.0</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D17" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="B18" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="B19" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="B20" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B21" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="B22" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>4.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="B23" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B24" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="B25" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C25" s="1">
+        <v>45128.0</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D25" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="B26" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B27" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C27" s="1">
+        <v>45128.0</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D27" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="B28" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C28" s="1">
+        <v>45128.0</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D28" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B29" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C29" s="1">
-        <v>5.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B30" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C30" s="1">
+        <v>45128.0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D30" s="1">
         <v>1.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C31" s="1">
+        <v>45128.0</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D31" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B32" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C32" s="1">
-        <v>5.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="B33" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>4.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B34" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C34" s="1">
+        <v>45128.0</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D34" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="B35" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C35" s="1">
-        <v>5.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="B36" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C36" s="1">
-        <v>5.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="B37" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C37" s="1">
+        <v>45128.0</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D37" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="B38" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C38" s="1">
-        <v>5.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B39" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C39" s="1">
-        <v>4.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="B40" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C40" s="1">
-        <v>5.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="B41" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C41" s="1">
+        <v>45128.0</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D41" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="B42" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C42" s="1">
-        <v>5.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="B43" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C43" s="1">
-        <v>4.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="44">
@@ -5183,186 +6900,237 @@
         <v>105</v>
       </c>
       <c r="B44" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C44" s="1">
+        <v>45128.0</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D44" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="B45" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C45" s="1">
-        <v>4.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="B46" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C46" s="1">
-        <v>4.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B47" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C47" s="1">
-        <v>4.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="B48" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C48" s="1">
-        <v>4.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B49" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C49" s="1">
+        <v>45128.0</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D49" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B50" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C50" s="1">
-        <v>4.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="B51" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C51" s="1">
-        <v>4.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B52" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C52" s="1">
+        <v>45128.0</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D52" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B53" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C53" s="1">
-        <v>3.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="B54" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C54" s="1">
-        <v>2.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C55" s="1">
-        <v>4.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="B56" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C56" s="1">
-        <v>4.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="B57" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C57" s="1">
-        <v>3.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D57" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="B58" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C58" s="1">
-        <v>4.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D58" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="B59" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C59" s="1">
-        <v>2.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="B60" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C60" s="1">
-        <v>3.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D60" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="61">
@@ -5370,31 +7138,40 @@
         <v>57</v>
       </c>
       <c r="B61" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="B62" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C62" s="1">
-        <v>2.0</v>
+        <v>45128.0</v>
+      </c>
+      <c r="C62" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B63" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C63" s="1">
+        <v>45128.0</v>
+      </c>
+      <c r="C63" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D63" s="1">
         <v>4.0</v>
       </c>
     </row>
@@ -5403,20 +7180,26 @@
         <v>53</v>
       </c>
       <c r="B64" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C64" s="1">
+        <v>45128.0</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D64" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B65" s="6">
-        <v>45127.0</v>
-      </c>
-      <c r="C65" s="1">
+        <v>45128.0</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0.4388888888888889</v>
+      </c>
+      <c r="D65" s="1">
         <v>4.0</v>
       </c>
     </row>
@@ -5441,14 +7224,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="2">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5457,329 +7242,419 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C4" s="1">
-        <v>3.0</v>
+      <c r="C4" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B5" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C5" s="1">
-        <v>2.0</v>
+      <c r="C5" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B6" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D6" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="B7" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C7" s="1">
-        <v>2.0</v>
+      <c r="C7" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B8" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C8" s="1">
-        <v>4.0</v>
+      <c r="C8" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B9" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C9" s="1">
-        <v>5.0</v>
+      <c r="C9" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="B10" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C10" s="1">
-        <v>1.0</v>
+      <c r="C10" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="B11" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C11" s="1">
-        <v>3.0</v>
+      <c r="C11" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B12" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C12" s="1">
-        <v>4.0</v>
+      <c r="C12" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="B13" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C13" s="1">
-        <v>3.0</v>
+      <c r="C13" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="B14" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D14" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="B15" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C15" s="1">
-        <v>4.0</v>
+      <c r="C15" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B16" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C16" s="1">
-        <v>5.0</v>
+      <c r="C16" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="B17" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C17" s="1">
-        <v>4.0</v>
+      <c r="C17" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B18" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C18" s="1">
-        <v>2.0</v>
+      <c r="C18" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="B19" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C19" s="1">
-        <v>1.0</v>
+      <c r="C19" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="B20" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C20" s="1">
-        <v>4.0</v>
+      <c r="C20" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="B21" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C21" s="1">
-        <v>5.0</v>
+      <c r="C21" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B22" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C22" s="1">
-        <v>5.0</v>
+      <c r="C22" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B23" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C23" s="1">
-        <v>3.0</v>
+      <c r="C23" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B24" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C24" s="1">
-        <v>2.0</v>
+      <c r="C24" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B25" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C25" s="1">
-        <v>3.0</v>
+      <c r="C25" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="B26" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C26" s="1">
-        <v>2.0</v>
+      <c r="C26" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="B27" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C27" s="1">
-        <v>4.0</v>
+      <c r="C27" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="B28" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D28" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B29" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D29" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="B30" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C30" s="1">
-        <v>1.0</v>
+      <c r="C30" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="B31" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D31" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="B32" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C32" s="1">
-        <v>1.0</v>
+      <c r="C32" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="33">
@@ -5789,250 +7664,319 @@
       <c r="B33" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D33" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="B34" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C34" s="1">
-        <v>3.0</v>
+      <c r="C34" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="B35" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C35" s="1">
-        <v>4.0</v>
+      <c r="C35" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B36" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C36" s="1">
-        <v>4.0</v>
+      <c r="C36" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="B37" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C37" s="1">
-        <v>2.0</v>
+      <c r="C37" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B38" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C38" s="1">
-        <v>2.0</v>
+      <c r="C38" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B39" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D39" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B40" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D40" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="B41" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D41" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="B42" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D42" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="B43" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C43" s="1">
-        <v>3.0</v>
+      <c r="C43" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B44" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C44" s="1">
-        <v>3.0</v>
+      <c r="C44" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="B45" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C45" s="1">
-        <v>2.0</v>
+      <c r="C45" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B46" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C46" s="1">
-        <v>2.0</v>
+      <c r="C46" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B47" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D47" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="B48" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C48" s="1">
-        <v>3.0</v>
+      <c r="C48" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B49" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C49" s="1">
-        <v>3.0</v>
+      <c r="C49" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D49" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B50" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C50" s="1">
-        <v>3.0</v>
+      <c r="C50" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B51" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D51" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B52" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C52" s="1">
-        <v>5.0</v>
+      <c r="C52" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="B53" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C53" s="1">
-        <v>2.0</v>
+      <c r="C53" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D53" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="B54" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D54" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="B55" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C55" s="1">
-        <v>2.0</v>
+      <c r="C55" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="56">
@@ -6042,107 +7986,137 @@
       <c r="B56" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D56" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="B57" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C57" s="1">
-        <v>5.0</v>
+      <c r="C57" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="B58" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C58" s="1">
-        <v>5.0</v>
+      <c r="C58" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="B59" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C59" s="1">
-        <v>3.0</v>
+      <c r="C59" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D59" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="B60" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C60" s="1">
-        <v>4.0</v>
+      <c r="C60" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D60" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B61" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C61" s="1">
-        <v>2.0</v>
+      <c r="C61" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D61" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="B62" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C62" s="1">
-        <v>1.0</v>
+      <c r="C62" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D62" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B63" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C63" s="1">
-        <v>4.0</v>
+      <c r="C63" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D63" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="B64" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C64" s="1">
-        <v>2.0</v>
+      <c r="C64" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B65" s="6">
         <v>45128.0</v>
       </c>
-      <c r="C65" s="1">
-        <v>4.0</v>
+      <c r="C65" s="7">
+        <v>0.7604166666666666</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -6173,7 +8147,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
@@ -6181,7 +8155,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6">
@@ -6211,10 +8185,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
